--- a/数据整理/stocks/港股/02013-微盟集团.xlsx
+++ b/数据整理/stocks/港股/02013-微盟集团.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7420</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>005644</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>广发沪港深行业龙头混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>13.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>80.59</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.87</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>002653</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>泰康沪港深精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2816</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002333</t>
+          <t>005228</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票C</t>
+          <t>汇添富港股通专注成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001824</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时沪港深成长企业混合</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>006595</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>广发港股通优质增长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.74</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002653</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰康沪港深精选灵活配置混合</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003580</t>
+          <t>002333</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰康沪港深价值优选灵活配置混合</t>
+          <t>汇丰晋信沪港深股票C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -782,15 +892,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>78.08</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.24</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>5</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>003580</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>泰康沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005228</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>汇添富港股通专注成长混合</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>86.36</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005644</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发沪港深行业龙头混合</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.52</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>86.18</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006595</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发港股通优质增长混合</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>96.75</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>008655</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>招商科技创新混合A</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008656</t>
+          <t>001824</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商科技创新混合C</t>
+          <t>博时沪港深成长企业混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1029,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1250,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>21.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.64</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.37</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7259</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002333</t>
+          <t>009223</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票C</t>
+          <t>宝盈现代服务业混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4468</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002214</t>
+          <t>008655</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中海沪港深价值优选灵活配置混合</t>
+          <t>招商科技创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.24</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3636</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>005646</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>中海沪港深多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>006537</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>恒生前海港股通精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005646</t>
+          <t>008656</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海沪港深多策略灵活配置混合</t>
+          <t>招商科技创新混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>80.75</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1238,25 +1508,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006537</t>
+          <t>009224</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生前海港股通精选混合</t>
+          <t>宝盈现代服务业混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008655</t>
+          <t>005698</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商科技创新混合A</t>
+          <t>华夏全球科技先锋混合QDII</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008656</t>
+          <t>002333</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商科技创新混合C</t>
+          <t>汇丰晋信沪港深股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.82</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005698</t>
+          <t>002214</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏全球科技先锋混合QDII</t>
+          <t>中海沪港深价值优选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>82.12</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009223</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合A</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009224</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>宝盈现代服务业混合C</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02013-微盟集团.xlsx
+++ b/数据整理/stocks/港股/02013-微盟集团.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1733,4 +1734,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9718</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008655</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008656</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02013-微盟集团.xlsx
+++ b/数据整理/stocks/港股/02013-微盟集团.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2208,4 +2209,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2518</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02013-微盟集团.xlsx
+++ b/数据整理/stocks/港股/02013-微盟集团.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2417,4 +2418,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02013-微盟集团.xlsx
+++ b/数据整理/stocks/港股/02013-微盟集团.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2426,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2478,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
+          <t>010783</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2473,14 +2516,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010784</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>德邦沪港深龙头混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.93</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -2489,14 +2622,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.03</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="5">
@@ -2505,13 +2638,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.93</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02013-微盟集团.xlsx
+++ b/数据整理/stocks/港股/02013-微盟集团.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3.93</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>2.03</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.93</v>
       </c>
     </row>
@@ -566,6 +583,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -697,7 +808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -905,7 +1016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1379,7 +1490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1891,7 +2002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02013-微盟集团.xlsx
+++ b/数据整理/stocks/港股/02013-微盟集团.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>3.93</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>2.03</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.93</v>
       </c>
     </row>
@@ -583,6 +600,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方产业智选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011924</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011925</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012235</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信澳业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016371</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011452</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>016289</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -676,7 +1509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -808,7 +1641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1016,7 +1849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1490,7 +2323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2002,7 +2835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
